--- a/ConfigData/Xlsx/ItemGift.xlsx
+++ b/ConfigData/Xlsx/ItemGift.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fish\Trunk\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGift" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>1;22035003;1;100;5</t>
   </si>
   <si>
-    <t>1;22033001;1;100;5|1;22033002;1;100;5|1;22032007;1;100;1|1;22033013;1;100;5|1;22033014;1;100;3|1;22033015;1;100;3|2;21300101;1;100;1|2;21200101;1;100;1|2;21400101;1;100;1</t>
-  </si>
-  <si>
     <t>3;51000050;1;100;2|3;51000248;1;100;2|3;51000056;1;100;1|3;51000089;1;100;1|3;52000014;1;100;1|3;53000015;1;100;1</t>
   </si>
   <si>
@@ -84,6 +81,10 @@
   </si>
   <si>
     <t>3;51000085;1;100;2|3;51000149;1;100;2|3;51000029;1;100;1|3;51000098;1;100;1|3;52000038;1;100;1|3;53000013;1;100;1</t>
+  </si>
+  <si>
+    <t>1;22033001;1;100;5|1;22033002;1;100;5|1;22032007;1;100;1|1;22033013;1;100;5|1;22033014;1;100;3|1;22033015;1;100;3|2;21200101;1;100;1|2;21400101;1;100;1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -758,74 +759,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -856,7 +789,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACD"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1138,17 +1071,17 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.125" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1156,7 +1089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1172,71 +1105,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22031001</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>22031002</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>22031003</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>22031004</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>22031005</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>22031006</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>22031007</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>22031008</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22031101</v>
       </c>
@@ -1244,7 +1177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>22031102</v>
       </c>
@@ -1252,7 +1185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>22031103</v>
       </c>
@@ -1260,7 +1193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>22031201</v>
       </c>
@@ -1268,7 +1201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>22031202</v>
       </c>
@@ -1276,7 +1209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>22031203</v>
       </c>

--- a/ConfigData/Xlsx/ItemGift.xlsx
+++ b/ConfigData/Xlsx/ItemGift.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGift" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <t>3;51000085;1;100;2|3;51000149;1;100;2|3;51000029;1;100;1|3;51000098;1;100;1|3;52000038;1;100;1|3;53000013;1;100;1</t>
   </si>
   <si>
-    <t>1;22033001;1;100;5|1;22033002;1;100;5|1;22032007;1;100;1|1;22033013;1;100;5|1;22033014;1;100;3|1;22033015;1;100;3|2;21200101;1;100;1|2;21400101;1;100;1</t>
+    <t>1;22033001;1;100;5|1;22033002;1;100;5|1;22032007;1;100;1|1;22033013;1;100;5|1;22033014;1;100;3|1;22033015;1;100;3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -759,6 +759,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -789,7 +857,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACD"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1074,14 +1142,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.125" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1089,7 +1157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1105,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>22031001</v>
       </c>
@@ -1113,7 +1181,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>22031002</v>
       </c>
@@ -1121,7 +1189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>22031003</v>
       </c>
@@ -1129,7 +1197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>22031004</v>
       </c>
@@ -1137,7 +1205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>22031005</v>
       </c>
@@ -1145,7 +1213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>22031006</v>
       </c>
@@ -1153,7 +1221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>22031007</v>
       </c>
@@ -1161,7 +1229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>22031008</v>
       </c>
@@ -1169,7 +1237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>22031101</v>
       </c>
@@ -1177,7 +1245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>22031102</v>
       </c>
@@ -1185,7 +1253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>22031103</v>
       </c>
@@ -1193,7 +1261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>22031201</v>
       </c>
@@ -1201,7 +1269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>22031202</v>
       </c>
@@ -1209,7 +1277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>22031203</v>
       </c>
@@ -1220,8 +1288,9 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ConfigData/Xlsx/ItemGift.xlsx
+++ b/ConfigData/Xlsx/ItemGift.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -42,15 +42,6 @@
   <si>
     <t>RLIItemRateCountList</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;22010001;1;100;5|1;22010002;1;100;5|1;22010003;1;100;5|1;22010004;1;100;3|1;22010005;1;100;3|1;22010006;1;100;5|1;22010007;1;100;2|1;22010008;1;100;2</t>
-  </si>
-  <si>
-    <t>1;22010101;1;100;5|1;22010102;1;100;5|1;22010103;1;100;3|1;22010104;1;100;2|1;22010105;1;100;2|1;22010106;1;100;3|1;22010107;1;100;2|1;22010108;1;100;2</t>
-  </si>
-  <si>
-    <t>1;22010201;1;100;5|1;22010202;1;100;3|1;22010203;1;100;3|1;22010204;1;100;2|1;22010205;1;100;2|1;22010206;1;100;2|1;22010207;1;100;1|1;22010208;1;100;1</t>
   </si>
   <si>
     <t>1;22035001;1;100;5</t>
@@ -759,74 +750,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -839,8 +762,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B17" totalsRowShown="0">
-  <autoFilter ref="A1:B17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B14" totalsRowShown="0">
+  <autoFilter ref="A1:B14"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Items"/>
@@ -857,7 +780,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACD"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1136,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1178,7 +1101,7 @@
         <v>22031001</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -1186,7 +1109,7 @@
         <v>22031002</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -1194,7 +1117,7 @@
         <v>22031003</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -1202,7 +1125,7 @@
         <v>22031004</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -1210,7 +1133,7 @@
         <v>22031005</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -1218,7 +1141,7 @@
         <v>22031006</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -1226,7 +1149,7 @@
         <v>22031007</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -1234,12 +1157,12 @@
         <v>22031008</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>22031101</v>
+        <v>22031201</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1247,7 +1170,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>22031102</v>
+        <v>22031202</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -1255,34 +1178,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>22031103</v>
+        <v>22031203</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>22031201</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>22031202</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>22031203</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/ItemGift.xlsx
+++ b/ConfigData/Xlsx/ItemGift.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -40,41 +40,23 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>RLIItemRateCountList</t>
+    <t>RLIdValueList</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1;22035001;1;100;5</t>
+    <t>22035001;5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1;22035002;1;100;5</t>
+    <t>22035002;5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1;22035003;1;100;5</t>
+    <t>22035003;5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>3;51000050;1;100;2|3;51000248;1;100;2|3;51000056;1;100;1|3;51000089;1;100;1|3;52000014;1;100;1|3;53000015;1;100;1</t>
-  </si>
-  <si>
-    <t>3;51000007;1;100;2|3;51000035;1;100;2|3;51000072;1;100;1|3;51000074;1;100;1|3;52000033;1;100;1|3;53000009;1;100;1</t>
-  </si>
-  <si>
-    <t>3;51000004;1;100;2|3;51000119;1;100;2|3;51000022;1;100;1|3;51000061;1;100;1|3;52000034;1;100;1|3;53000006;1;100;1</t>
-  </si>
-  <si>
-    <t>3;51000096;1;100;2|3;51000132;1;100;2|3;51000024;1;100;1|3;51000133;1;100;1|3;52000035;1;100;1|3;53000007;1;100;1</t>
-  </si>
-  <si>
-    <t>3;51000021;1;100;2|3;51000124;1;100;2|3;51000023;1;100;1|3;51000045;1;100;1|3;52000036;1;100;1|3;53000011;1;100;1</t>
-  </si>
-  <si>
-    <t>3;51000137;1;100;2|3;51000186;1;100;2|3;51000028;1;100;1|3;51000081;1;100;1|3;52000037;1;100;1|3;53000012;1;100;1</t>
-  </si>
-  <si>
-    <t>3;51000085;1;100;2|3;51000149;1;100;2|3;51000029;1;100;1|3;51000098;1;100;1|3;52000038;1;100;1|3;53000013;1;100;1</t>
-  </si>
-  <si>
-    <t>1;22033001;1;100;5|1;22033002;1;100;5|1;22032007;1;100;1|1;22033013;1;100;5|1;22033014;1;100;3|1;22033015;1;100;3</t>
+    <t>22033001;5|22033002;5|22032007;1|22033013;5|22033014;3|22033015;3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -750,6 +732,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -762,8 +812,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B14" totalsRowShown="0">
-  <autoFilter ref="A1:B14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Items"/>
@@ -780,7 +830,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACD"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1059,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1101,86 +1151,30 @@
         <v>22031001</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>22031002</v>
+        <v>22031201</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>22031003</v>
+        <v>22031202</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>22031004</v>
+        <v>22031203</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>22031005</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>22031006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>22031007</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>22031008</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>22031201</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>22031202</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>22031203</v>
-      </c>
-      <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>

--- a/ConfigData/Xlsx/ItemGift.xlsx
+++ b/ConfigData/Xlsx/ItemGift.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -40,30 +40,34 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>RLIdValueList</t>
+    <t>ItemCount</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>22035001;5</t>
+    <t>int[]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>22035002;5</t>
+    <t>道具概率</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>22035003;5</t>
+    <t>string[]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>22033001;5|22033002;5|22032007;1|22033013;5|22033014;3|22033015;3</t>
+    <t>5;5;1;5;3;3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxingmofayaoji;zhongxingmofayaoji;chushiziyuanbao;suijihuanshouka;suijiwuqika;suijimofaka</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -732,74 +736,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -812,25 +748,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Items"/>
+    <tableColumn id="3" name="ItemCount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACD"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -898,6 +835,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -933,6 +887,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1109,73 +1080,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.125" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.875" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>22031001</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>22031201</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>22031202</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>22031203</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/ItemGift.xlsx
+++ b/ConfigData/Xlsx/ItemGift.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>22031001</v>
+        <v>22300001</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
